--- a/data/trans_orig/P36$cafe-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36$cafe-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>659545</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>647299</v>
+        <v>645726</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>669001</v>
+        <v>669533</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9516849397549993</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9340148289972466</v>
+        <v>0.9317448357795824</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9653290048189564</v>
+        <v>0.9660965391586368</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>655</v>
@@ -764,19 +764,19 @@
         <v>649067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>636158</v>
+        <v>635786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>659041</v>
+        <v>660027</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9429304883540016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9241767439161677</v>
+        <v>0.9236367654990614</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9574200790943316</v>
+        <v>0.9588519158830671</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1304</v>
@@ -785,19 +785,19 @@
         <v>1308612</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1291252</v>
+        <v>1291606</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1324741</v>
+        <v>1325345</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9473225385834718</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9347548593308777</v>
+        <v>0.9350110459617281</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9589984056463262</v>
+        <v>0.9594352810621032</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>18246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11370</v>
+        <v>10848</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28620</v>
+        <v>28940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02632851634555062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01640595901633716</v>
+        <v>0.01565265753969054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04129732300566378</v>
+        <v>0.04175863353559949</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -835,19 +835,19 @@
         <v>38373</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28251</v>
+        <v>28637</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51670</v>
+        <v>52043</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05574651413877115</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04104091974934052</v>
+        <v>0.04160284985331791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07506318123504691</v>
+        <v>0.07560484662555364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -856,19 +856,19 @@
         <v>56620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43473</v>
+        <v>43782</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75224</v>
+        <v>72985</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04098769967513232</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03147060950379257</v>
+        <v>0.03169460240995777</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05445576814521931</v>
+        <v>0.05283470880508222</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>31124</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21081</v>
+        <v>21431</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43080</v>
+        <v>42917</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04490940899729658</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03041837957116371</v>
+        <v>0.03092386842225284</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06216250281936262</v>
+        <v>0.06192710681187524</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -906,19 +906,19 @@
         <v>9880</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5324</v>
+        <v>5053</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18208</v>
+        <v>17809</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01435293194081966</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007734186023277729</v>
+        <v>0.007341256669874482</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02645103470849325</v>
+        <v>0.02587197261489748</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -927,19 +927,19 @@
         <v>41003</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29187</v>
+        <v>28909</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55279</v>
+        <v>53798</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0296829139031852</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0211287385807728</v>
+        <v>0.02092775669324392</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04001721901982552</v>
+        <v>0.03894501627431718</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>12622</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6972</v>
+        <v>6691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21234</v>
+        <v>20639</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01821283078849219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01005986088420041</v>
+        <v>0.009654622434512764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03063985695866802</v>
+        <v>0.02978063100534655</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -977,19 +977,19 @@
         <v>9700</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4908</v>
+        <v>4811</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17186</v>
+        <v>17625</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01409193568498132</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007129597613628505</v>
+        <v>0.006989678606004389</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02496633461342813</v>
+        <v>0.025605348881182</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -998,19 +998,19 @@
         <v>22322</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14233</v>
+        <v>14536</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32309</v>
+        <v>31327</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01615936143857393</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0103031816575682</v>
+        <v>0.01052310800298453</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02338926958183215</v>
+        <v>0.02267782220421409</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>8706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3915</v>
+        <v>4159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15348</v>
+        <v>15585</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01256283102888717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005649561486477747</v>
+        <v>0.006001890236238149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02214584621415135</v>
+        <v>0.02248776356027565</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1048,19 +1048,19 @@
         <v>17077</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10520</v>
+        <v>10431</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26147</v>
+        <v>26572</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02480836364996696</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01528234631417874</v>
+        <v>0.01515342732977183</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03798501467512602</v>
+        <v>0.038602677756679</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -1069,19 +1069,19 @@
         <v>25783</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17267</v>
+        <v>17664</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36862</v>
+        <v>38534</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01866486111681349</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0124995376150314</v>
+        <v>0.01278715787563757</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02668492245605994</v>
+        <v>0.02789520528185153</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>521308</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>496130</v>
+        <v>497981</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>543237</v>
+        <v>543557</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7522166018386757</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.715885931572822</v>
+        <v>0.7185570720235906</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7838589022740883</v>
+        <v>0.7843201555944597</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>562</v>
@@ -1119,19 +1119,19 @@
         <v>555092</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>534819</v>
+        <v>534079</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>575529</v>
+        <v>576018</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.806409032190241</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7769565627265239</v>
+        <v>0.7758814427814833</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8360982103871153</v>
+        <v>0.8368080350916193</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1072</v>
@@ -1140,19 +1140,19 @@
         <v>1076400</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1044294</v>
+        <v>1045611</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1107009</v>
+        <v>1106599</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7792210491563738</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7559787288244473</v>
+        <v>0.7569321773466098</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8013793314186559</v>
+        <v>0.8010821445801953</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>896636</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>880523</v>
+        <v>879787</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>910804</v>
+        <v>911332</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.935101151944945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9182967823590764</v>
+        <v>0.9175300245382698</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9498777074721179</v>
+        <v>0.9504274227917984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>838</v>
@@ -1194,19 +1194,19 @@
         <v>894569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>877305</v>
+        <v>877874</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>910260</v>
+        <v>911081</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9247201327853287</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9068749183010666</v>
+        <v>0.9074631372176714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9409399579853083</v>
+        <v>0.941789375750036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1671</v>
@@ -1215,19 +1215,19 @@
         <v>1791204</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1766671</v>
+        <v>1768393</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1811483</v>
+        <v>1813070</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9298876602589067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9171513131351422</v>
+        <v>0.9180453409485949</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9404148173325905</v>
+        <v>0.9412391280472597</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>82522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65388</v>
+        <v>66798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103344</v>
+        <v>103431</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08606196208403123</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06819265819599582</v>
+        <v>0.06966364767192412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1077770781870089</v>
+        <v>0.1078684500606735</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -1265,19 +1265,19 @@
         <v>112237</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94917</v>
+        <v>93378</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>135987</v>
+        <v>135148</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1160203026199629</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09811573561797907</v>
+        <v>0.09652553908567114</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1405699368553485</v>
+        <v>0.1397033683399796</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>176</v>
@@ -1286,19 +1286,19 @@
         <v>194759</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>165459</v>
+        <v>168380</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>221424</v>
+        <v>224168</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1011074558751589</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08589669928998354</v>
+        <v>0.08741272326264179</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1149501703098028</v>
+        <v>0.1163749746973772</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>42447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30421</v>
+        <v>30039</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58770</v>
+        <v>58961</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04426773104985648</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03172568247264104</v>
+        <v>0.0313276072252362</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06129134748315362</v>
+        <v>0.06149057514814944</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -1336,19 +1336,19 @@
         <v>33280</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22013</v>
+        <v>23712</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46202</v>
+        <v>46438</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03440133181667616</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02275522478246712</v>
+        <v>0.02451168624448167</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04775955541469767</v>
+        <v>0.04800332715037058</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>66</v>
@@ -1357,19 +1357,19 @@
         <v>75726</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>59286</v>
+        <v>58638</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>95150</v>
+        <v>95376</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03931268862267134</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03077766491350177</v>
+        <v>0.030441195471913</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04939636077444878</v>
+        <v>0.04951349215918053</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>19325</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12117</v>
+        <v>12270</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29220</v>
+        <v>30072</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02015435876726618</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01263701656923459</v>
+        <v>0.01279624538050906</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03047337548472632</v>
+        <v>0.03136199444363372</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1407,19 +1407,19 @@
         <v>14931</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8547</v>
+        <v>8662</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25024</v>
+        <v>25489</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01543387755859953</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008835587747947541</v>
+        <v>0.008954062581821933</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02586751636719925</v>
+        <v>0.02634809582649806</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1428,19 +1428,19 @@
         <v>34256</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24259</v>
+        <v>24970</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47038</v>
+        <v>48855</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01778366768606473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01259369669947353</v>
+        <v>0.01296275823841465</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02441937024963046</v>
+        <v>0.02536277841034245</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>13998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7905</v>
+        <v>8133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24454</v>
+        <v>23940</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01459894654341797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008244300466050427</v>
+        <v>0.008482108359034173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0255031232481127</v>
+        <v>0.02496694980629781</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -1478,19 +1478,19 @@
         <v>12961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6746</v>
+        <v>7162</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21543</v>
+        <v>21019</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01339783624318678</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006973567284818126</v>
+        <v>0.007403309950123691</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02226912443648975</v>
+        <v>0.02172772593395428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -1499,19 +1499,19 @@
         <v>26959</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18095</v>
+        <v>18249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40198</v>
+        <v>39218</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01399573230520229</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009393734854480697</v>
+        <v>0.009473777810892436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02086857896436209</v>
+        <v>0.02035991823373879</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>780105</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>755223</v>
+        <v>753163</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>806158</v>
+        <v>801771</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.813571195091378</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7876214499337986</v>
+        <v>0.7854732416033943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8407416228006633</v>
+        <v>0.8361663411019756</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>711</v>
@@ -1549,19 +1549,19 @@
         <v>762801</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>737067</v>
+        <v>734856</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>786772</v>
+        <v>785094</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7885114771460913</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7619099677371705</v>
+        <v>0.7596244727636819</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8132899092917393</v>
+        <v>0.8115551980507344</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1440</v>
@@ -1570,19 +1570,19 @@
         <v>1542906</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1508559</v>
+        <v>1507622</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1575002</v>
+        <v>1580335</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8009858574522317</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7831547072049819</v>
+        <v>0.7826684518917002</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.81764818458175</v>
+        <v>0.8204165862106657</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>605487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>588239</v>
+        <v>587324</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>620202</v>
+        <v>620950</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8937504858174447</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8682900453048219</v>
+        <v>0.86693922325604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9154705221811782</v>
+        <v>0.9165740988411305</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>634</v>
@@ -1624,19 +1624,19 @@
         <v>623032</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>606434</v>
+        <v>608766</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>636156</v>
+        <v>635805</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.911077909156781</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8868062078455629</v>
+        <v>0.8902162496540393</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9302695477354562</v>
+        <v>0.9297551020124222</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1208</v>
@@ -1645,19 +1645,19 @@
         <v>1228521</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1204052</v>
+        <v>1203629</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1249887</v>
+        <v>1248201</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9024547549331843</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8844802811056282</v>
+        <v>0.8841698012245901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9181504732155982</v>
+        <v>0.916911285933663</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>71526</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56197</v>
+        <v>56113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>87648</v>
+        <v>88150</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1055784416738452</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0829517184968819</v>
+        <v>0.08282826635732517</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1293763272215314</v>
+        <v>0.1301164815193298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -1695,19 +1695,19 @@
         <v>98754</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81864</v>
+        <v>81242</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>118848</v>
+        <v>116067</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1444102241584661</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.119711454722408</v>
+        <v>0.1188030739370447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1737950534611928</v>
+        <v>0.1697285872466338</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>168</v>
@@ -1716,19 +1716,19 @@
         <v>170280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145258</v>
+        <v>146773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>194195</v>
+        <v>195637</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1250852245561379</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1067047038983286</v>
+        <v>0.1078177869169816</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1426530861150503</v>
+        <v>0.1437122663560579</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>24223</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15723</v>
+        <v>14981</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37742</v>
+        <v>35831</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03575556462385956</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02320876456854106</v>
+        <v>0.02211299459351817</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05570987280083067</v>
+        <v>0.05288946165019041</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -1766,19 +1766,19 @@
         <v>9976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5148</v>
+        <v>5336</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18411</v>
+        <v>17303</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01458820296996981</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007528695485228301</v>
+        <v>0.007803408125805972</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02692232703879223</v>
+        <v>0.02530301493157562</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>32</v>
@@ -1787,19 +1787,19 @@
         <v>34199</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23377</v>
+        <v>24001</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48639</v>
+        <v>49181</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02512233839642782</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01717274558837842</v>
+        <v>0.01763096507133602</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03572922455291545</v>
+        <v>0.03612749083131626</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>15973</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9686</v>
+        <v>9748</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26592</v>
+        <v>26055</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02357733736297227</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01429737633726496</v>
+        <v>0.01438944255517976</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03925201898747344</v>
+        <v>0.03845918250365126</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1837,19 +1837,19 @@
         <v>11171</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6016</v>
+        <v>5364</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20160</v>
+        <v>19096</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01633539018425242</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008797932029962997</v>
+        <v>0.007844207736199087</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0294810025558246</v>
+        <v>0.02792499453972024</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -1858,19 +1858,19 @@
         <v>27144</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18227</v>
+        <v>18110</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39442</v>
+        <v>39372</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01993941290466886</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0133893403214233</v>
+        <v>0.01330315112491332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02897364977885088</v>
+        <v>0.02892230923137648</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>17735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10960</v>
+        <v>10482</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26967</v>
+        <v>27478</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02617861769796344</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01617761217726187</v>
+        <v>0.01547257526435993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03980507120953176</v>
+        <v>0.04055944268449924</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1908,19 +1908,19 @@
         <v>13005</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7315</v>
+        <v>7853</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21939</v>
+        <v>22451</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01901764188637178</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01069655827569811</v>
+        <v>0.01148337406076227</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03208264692668739</v>
+        <v>0.0328303438151443</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -1929,19 +1929,19 @@
         <v>30740</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21678</v>
+        <v>21554</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42742</v>
+        <v>42723</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02258136844891363</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01592420290932748</v>
+        <v>0.0158330183318354</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03139748744443021</v>
+        <v>0.03138410045175272</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>505049</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>479420</v>
+        <v>481343</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>527488</v>
+        <v>527407</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7454944674492452</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7076642831564421</v>
+        <v>0.7105027142336384</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7786172519131888</v>
+        <v>0.7784968002609739</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>529</v>
@@ -1979,19 +1979,19 @@
         <v>517057</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>492923</v>
+        <v>494554</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>538465</v>
+        <v>539806</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7561073034996255</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7208158122169835</v>
+        <v>0.7232007149684736</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7874127515598702</v>
+        <v>0.7893740039068412</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1009</v>
@@ -2000,19 +2000,19 @@
         <v>1022107</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>990204</v>
+        <v>985223</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1055213</v>
+        <v>1049852</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7508257264168737</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.72739065643815</v>
+        <v>0.723731216468663</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7751454512359764</v>
+        <v>0.7712071460961705</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>829987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>810482</v>
+        <v>809898</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>849778</v>
+        <v>849689</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8825398681827715</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8618000416957374</v>
+        <v>0.8611788364088299</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9035837185833531</v>
+        <v>0.9034886642427221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>886</v>
@@ -2054,19 +2054,19 @@
         <v>924277</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>903569</v>
+        <v>901320</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>942876</v>
+        <v>943281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8925145661727039</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.872518014444797</v>
+        <v>0.870346121922947</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.910473911683637</v>
+        <v>0.910864774768762</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1765</v>
@@ -2075,19 +2075,19 @@
         <v>1754265</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1725734</v>
+        <v>1725325</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1782480</v>
+        <v>1780533</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8877673280417866</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8733289399032316</v>
+        <v>0.873122221062939</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9020461453873935</v>
+        <v>0.9010609455576087</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>92324</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74737</v>
+        <v>75752</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>111323</v>
+        <v>112463</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09817015683346136</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07946940028628374</v>
+        <v>0.08054846103463054</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.11837122451558</v>
+        <v>0.1195842952795113</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>104</v>
@@ -2125,19 +2125,19 @@
         <v>109923</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>91562</v>
+        <v>90458</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>132978</v>
+        <v>131442</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.106145969219852</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0884154672089091</v>
+        <v>0.08734968023279585</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1284080920418291</v>
+        <v>0.1269252153421646</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>197</v>
@@ -2146,19 +2146,19 @@
         <v>202248</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>176009</v>
+        <v>177544</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>231687</v>
+        <v>232484</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1023500567296761</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08907156872263856</v>
+        <v>0.0898484165409472</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1172482587855299</v>
+        <v>0.1176513798543676</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>20198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13790</v>
+        <v>13112</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29778</v>
+        <v>29026</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02147703033553932</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01466305704837125</v>
+        <v>0.01394256334299223</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0316634399511151</v>
+        <v>0.03086363447779115</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -2196,19 +2196,19 @@
         <v>17523</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10540</v>
+        <v>9640</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28579</v>
+        <v>29138</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0169204013475394</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0101779669686942</v>
+        <v>0.009308569448969021</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02759643961396296</v>
+        <v>0.02813663301064895</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -2217,19 +2217,19 @@
         <v>37721</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27149</v>
+        <v>27269</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49686</v>
+        <v>50809</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01908902869867417</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01373926825206405</v>
+        <v>0.01379990027620355</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02514419085519475</v>
+        <v>0.02571242789792394</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>19621</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12441</v>
+        <v>12911</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29768</v>
+        <v>29702</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02086372601538878</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01322895760428219</v>
+        <v>0.01372865657456892</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0316527469728358</v>
+        <v>0.03158277827425027</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -2267,19 +2267,19 @@
         <v>17748</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10827</v>
+        <v>10557</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27139</v>
+        <v>27107</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01713852691516304</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01045524526484511</v>
+        <v>0.01019377120791158</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02620644043717573</v>
+        <v>0.02617498746732845</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -2288,19 +2288,19 @@
         <v>37370</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26558</v>
+        <v>26762</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50286</v>
+        <v>50326</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01891145349717079</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01344018526885499</v>
+        <v>0.01354317325049228</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02544765267071415</v>
+        <v>0.02546788973126611</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>18916</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10892</v>
+        <v>11436</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29331</v>
+        <v>31025</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02011328874827076</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01158137058205484</v>
+        <v>0.01216045360776348</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03118796924082946</v>
+        <v>0.03298974510352403</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2338,19 +2338,19 @@
         <v>12488</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7044</v>
+        <v>6388</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21843</v>
+        <v>21170</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01205853855881893</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006802258258482186</v>
+        <v>0.006168914950998421</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02109190412953423</v>
+        <v>0.02044262191048928</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -2359,19 +2359,19 @@
         <v>31403</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21019</v>
+        <v>20942</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>44775</v>
+        <v>44899</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01589201976025211</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01063693327917208</v>
+        <v>0.01059812572689635</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02265883446950239</v>
+        <v>0.0227215073503015</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>693315</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>667114</v>
+        <v>665914</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>721326</v>
+        <v>719538</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7372138660950169</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7093540294850783</v>
+        <v>0.7080777810253964</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.766998879085624</v>
+        <v>0.7650968775967866</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>771</v>
@@ -2409,19 +2409,19 @@
         <v>802056</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>774316</v>
+        <v>771877</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>828832</v>
+        <v>827374</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7744931609362089</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7477069048934852</v>
+        <v>0.7453512261704551</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8003491929645337</v>
+        <v>0.7989413616463041</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1503</v>
@@ -2430,19 +2430,19 @@
         <v>1495371</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1460362</v>
+        <v>1456630</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1535706</v>
+        <v>1529394</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7567509004544943</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7390344975138832</v>
+        <v>0.7371457829247375</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7771631955228145</v>
+        <v>0.7739686862304554</v>
       </c>
     </row>
     <row r="28">
@@ -2463,19 +2463,19 @@
         <v>2991657</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2955718</v>
+        <v>2953928</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3023218</v>
+        <v>3020740</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9149311682843065</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9039400913492965</v>
+        <v>0.9033925975262224</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9245835825988737</v>
+        <v>0.9238257157456615</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3013</v>
@@ -2484,19 +2484,19 @@
         <v>3090946</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3053232</v>
+        <v>3057779</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3120480</v>
+        <v>3119946</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9157885395949378</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9046145895018702</v>
+        <v>0.9059617807581557</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.924538944448177</v>
+        <v>0.9243807307982638</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5948</v>
@@ -2505,19 +2505,19 @@
         <v>6082602</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6036409</v>
+        <v>6033682</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6123908</v>
+        <v>6130367</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.915366650841672</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9084150822093423</v>
+        <v>0.9080046180415099</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9215827439978926</v>
+        <v>0.9225547367798649</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>264619</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>233631</v>
+        <v>234690</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>297642</v>
+        <v>298646</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08092771402296287</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07145092058494967</v>
+        <v>0.07177480802654362</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09102700855034014</v>
+        <v>0.09133421457372747</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>347</v>
@@ -2555,19 +2555,19 @@
         <v>359288</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>322849</v>
+        <v>320719</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>395398</v>
+        <v>396128</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1064501095621658</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0956539817037276</v>
+        <v>0.09502296210320423</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.117148927162351</v>
+        <v>0.1173653266526122</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>597</v>
@@ -2576,19 +2576,19 @@
         <v>623906</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>574805</v>
+        <v>578029</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>668044</v>
+        <v>674286</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09389124329165648</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08650196272691862</v>
+        <v>0.08698712821836836</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1005334747727446</v>
+        <v>0.101472852058929</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>117992</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>96536</v>
+        <v>96527</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>142491</v>
+        <v>142687</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.036085128276868</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0295233840722469</v>
+        <v>0.02952055424123693</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04357757609869251</v>
+        <v>0.04363749292203995</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -2626,19 +2626,19 @@
         <v>70658</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>54825</v>
+        <v>55504</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>88941</v>
+        <v>90267</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0209346470152078</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01624361351810361</v>
+        <v>0.0164447883492774</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02635154569324247</v>
+        <v>0.02674437373605118</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>177</v>
@@ -2647,19 +2647,19 @@
         <v>188650</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>163203</v>
+        <v>161919</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>219095</v>
+        <v>218134</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02838978059805604</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02456034988470497</v>
+        <v>0.02436705490352887</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03297139635314197</v>
+        <v>0.03282689570591636</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>67542</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>52588</v>
+        <v>52959</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>85733</v>
+        <v>84375</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02065608437713514</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01608286133493024</v>
+        <v>0.01619647215377049</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02621956275492163</v>
+        <v>0.02580426748876458</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>52</v>
@@ -2697,19 +2697,19 @@
         <v>53550</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>39770</v>
+        <v>41210</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>69967</v>
+        <v>67147</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01586587840357183</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01178314648780806</v>
+        <v>0.01220967101594633</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02073001770390494</v>
+        <v>0.01989433497439333</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>120</v>
@@ -2718,19 +2718,19 @@
         <v>121092</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>100122</v>
+        <v>100583</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>143837</v>
+        <v>145962</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01822300652415793</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01506729803006513</v>
+        <v>0.01513667288978565</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02164596317607302</v>
+        <v>0.02196577478352129</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>59356</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>46750</v>
+        <v>45177</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>77135</v>
+        <v>77380</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01815258780724669</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01429753941424679</v>
+        <v>0.01381634488042936</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02359012662425734</v>
+        <v>0.0236648487505724</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>57</v>
@@ -2768,19 +2768,19 @@
         <v>55531</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>43053</v>
+        <v>42584</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>72090</v>
+        <v>72626</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01645265441210019</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01275566377236005</v>
+        <v>0.01261682350624962</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02135878461099495</v>
+        <v>0.02151756395934763</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>114</v>
@@ -2789,19 +2789,19 @@
         <v>114886</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>93151</v>
+        <v>94485</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>137223</v>
+        <v>137595</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01728914470728525</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01401823320692411</v>
+        <v>0.01421893293507369</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02065066394868495</v>
+        <v>0.02070663838609875</v>
       </c>
     </row>
     <row r="33">
@@ -2818,19 +2818,19 @@
         <v>2499777</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2448234</v>
+        <v>2451205</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2548410</v>
+        <v>2548211</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7645008964609099</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7487376326431997</v>
+        <v>0.7496460589564471</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7793740457275549</v>
+        <v>0.77931317522743</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2573</v>
@@ -2839,19 +2839,19 @@
         <v>2637007</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2588674</v>
+        <v>2589470</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2683038</v>
+        <v>2684251</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7812950491013528</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7669750086266356</v>
+        <v>0.7672109573682828</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7949332181658507</v>
+        <v>0.795292612052128</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5024</v>
@@ -2860,19 +2860,19 @@
         <v>5136784</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5070274</v>
+        <v>5067651</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5207399</v>
+        <v>5200084</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.7730311102083961</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.7630220550640877</v>
+        <v>0.7626273904366732</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7836579363485385</v>
+        <v>0.7825570824425695</v>
       </c>
     </row>
     <row r="34">
@@ -3133,19 +3133,19 @@
         <v>658365</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>644418</v>
+        <v>643637</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>669262</v>
+        <v>669537</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9385516414361887</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9186690463497352</v>
+        <v>0.917556308858177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9540865761608022</v>
+        <v>0.9544784834210501</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>617</v>
@@ -3154,19 +3154,19 @@
         <v>661422</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>648292</v>
+        <v>648868</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>671659</v>
+        <v>672039</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9501680424476149</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9313049120329344</v>
+        <v>0.9321327502846876</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9648730493258272</v>
+        <v>0.9654198301364695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1247</v>
@@ -3175,19 +3175,19 @@
         <v>1319787</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1300016</v>
+        <v>1299534</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1334906</v>
+        <v>1335637</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9443375761157271</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9301908082797414</v>
+        <v>0.9298458126871724</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9551553974256832</v>
+        <v>0.9556784530082568</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>58570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45041</v>
+        <v>44226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73671</v>
+        <v>75326</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08349677013872284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0642089580133037</v>
+        <v>0.06304821467341432</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1050243493860308</v>
+        <v>0.1073834071480031</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -3225,19 +3225,19 @@
         <v>74203</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58475</v>
+        <v>59319</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91792</v>
+        <v>94017</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1065970800872789</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.084002891245623</v>
+        <v>0.08521500127712101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1318638214337887</v>
+        <v>0.1350605085082487</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -3246,19 +3246,19 @@
         <v>132774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110609</v>
+        <v>110777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>156382</v>
+        <v>157169</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09500264741585612</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07914343150123879</v>
+        <v>0.07926317172437158</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1118951111014059</v>
+        <v>0.1124578322122132</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>38213</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26977</v>
+        <v>27250</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51083</v>
+        <v>51567</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05447560682318871</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03845725618837508</v>
+        <v>0.03884717213121802</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07282232316619985</v>
+        <v>0.07351337841038853</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -3296,19 +3296,19 @@
         <v>13405</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7347</v>
+        <v>7187</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24481</v>
+        <v>22785</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01925679254875748</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01055495848238015</v>
+        <v>0.01032428768728398</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03516796272890172</v>
+        <v>0.03273119712873278</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -3317,19 +3317,19 @@
         <v>51618</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39505</v>
+        <v>39712</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67596</v>
+        <v>67418</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03693370561969057</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02826637883659041</v>
+        <v>0.02841475277412593</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04836643605417251</v>
+        <v>0.04823932783036486</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>14142</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8143</v>
+        <v>7970</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23268</v>
+        <v>23790</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02016092019145454</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01160840364235437</v>
+        <v>0.01136122484637907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03317026673261594</v>
+        <v>0.03391503886010028</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -3367,19 +3367,19 @@
         <v>6349</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2196</v>
+        <v>2172</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13757</v>
+        <v>13625</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009120602075919223</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003154128329025956</v>
+        <v>0.003119557629661499</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01976324256848205</v>
+        <v>0.0195734488408578</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -3388,19 +3388,19 @@
         <v>20491</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12429</v>
+        <v>13242</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33445</v>
+        <v>32527</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01466192274853057</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008893174118553612</v>
+        <v>0.009474830738367719</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02393093422527102</v>
+        <v>0.02327406634200358</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>4884</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1697</v>
+        <v>1891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9999</v>
+        <v>10469</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006962717601745817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002419472337917849</v>
+        <v>0.002695220123829099</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01425372753155818</v>
+        <v>0.01492420203149928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -3438,19 +3438,19 @@
         <v>7500</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3322</v>
+        <v>3037</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15070</v>
+        <v>14869</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01077357651554648</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004771568735713451</v>
+        <v>0.004363287069122815</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02164882501885169</v>
+        <v>0.02136032605037349</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -3459,19 +3459,19 @@
         <v>12384</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6844</v>
+        <v>6942</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21866</v>
+        <v>21297</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008860842565450064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004897284181876606</v>
+        <v>0.004966939194673172</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01564557142282764</v>
+        <v>0.01523844009075687</v>
       </c>
     </row>
     <row r="9">
@@ -3488,19 +3488,19 @@
         <v>579708</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>561147</v>
+        <v>557560</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>599030</v>
+        <v>597838</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8264195472948148</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7999600456801412</v>
+        <v>0.7948464778518659</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8539645053636292</v>
+        <v>0.8522657516793597</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>537</v>
@@ -3509,19 +3509,19 @@
         <v>578297</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>555949</v>
+        <v>556337</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>595841</v>
+        <v>596443</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.830754170648791</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7986503630789593</v>
+        <v>0.7992076980929208</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8559565524134062</v>
+        <v>0.856822103689649</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1090</v>
@@ -3530,19 +3530,19 @@
         <v>1158005</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1128953</v>
+        <v>1124689</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1186691</v>
+        <v>1183253</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8285785505490791</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8077911486364217</v>
+        <v>0.804740422881831</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8491044379065953</v>
+        <v>0.8466439311297476</v>
       </c>
     </row>
     <row r="10">
@@ -3563,19 +3563,19 @@
         <v>942504</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>923493</v>
+        <v>922914</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>957925</v>
+        <v>958966</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9258873166891644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9072110077344153</v>
+        <v>0.9066427200746981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9410357964268681</v>
+        <v>0.9420583968111985</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>884</v>
@@ -3584,19 +3584,19 @@
         <v>970331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>953373</v>
+        <v>953781</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>984829</v>
+        <v>983831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9419586029747224</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9254961732575355</v>
+        <v>0.925892536454844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9560328068066545</v>
+        <v>0.9550632692359053</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1753</v>
@@ -3605,19 +3605,19 @@
         <v>1912836</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1890865</v>
+        <v>1882832</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1936236</v>
+        <v>1934697</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9339707244069542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9232432635247788</v>
+        <v>0.9193208138681946</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9453961956085348</v>
+        <v>0.9446449487266187</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>100289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81985</v>
+        <v>80288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>122956</v>
+        <v>120128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.098521337008598</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0805392328989511</v>
+        <v>0.0788720018422672</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1207885583610152</v>
+        <v>0.1180104477435995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -3655,19 +3655,19 @@
         <v>106515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>86687</v>
+        <v>88157</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>127833</v>
+        <v>130107</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1034001586493193</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08415207552802718</v>
+        <v>0.08557912069848317</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1240950149786315</v>
+        <v>0.1263021645905022</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>190</v>
@@ -3676,19 +3676,19 @@
         <v>206804</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>180634</v>
+        <v>178960</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>239374</v>
+        <v>237201</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1009752479030711</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08819750228400668</v>
+        <v>0.08738011084222579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1168779454322416</v>
+        <v>0.1158168525620209</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>37468</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26491</v>
+        <v>26829</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52790</v>
+        <v>51047</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03680773756346635</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0260242505224886</v>
+        <v>0.02635636098882679</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05185924947666239</v>
+        <v>0.05014685291505284</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -3726,19 +3726,19 @@
         <v>14459</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8291</v>
+        <v>7952</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23901</v>
+        <v>23343</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01403654188154783</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008048835631889163</v>
+        <v>0.007719682793447319</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02320222899113437</v>
+        <v>0.0226601625329336</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -3747,19 +3747,19 @@
         <v>51928</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39712</v>
+        <v>38828</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69745</v>
+        <v>67721</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02535446271987596</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01938980583023141</v>
+        <v>0.01895813330668254</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03405382370705134</v>
+        <v>0.03306566396736975</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>23268</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13680</v>
+        <v>14716</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35690</v>
+        <v>37739</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02285728329839741</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01343914357171062</v>
+        <v>0.01445654522465995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03506078611176567</v>
+        <v>0.03707328517341291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -3797,19 +3797,19 @@
         <v>15688</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9326</v>
+        <v>8534</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27061</v>
+        <v>25999</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01522932932889047</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009052936732105547</v>
+        <v>0.008284239256894498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02626995499182467</v>
+        <v>0.02523830409248894</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -3818,19 +3818,19 @@
         <v>38956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28127</v>
+        <v>27280</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57007</v>
+        <v>56157</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01902063569642755</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0137334187683351</v>
+        <v>0.01331965423675186</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02783471146623848</v>
+        <v>0.02741937647250306</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>7038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3007</v>
+        <v>2982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15161</v>
+        <v>14028</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006914357022484722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002954419806643641</v>
+        <v>0.002929263741165436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01489416550153742</v>
+        <v>0.01378025471858286</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -3868,19 +3868,19 @@
         <v>7325</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3042</v>
+        <v>3183</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15658</v>
+        <v>14561</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007111081380699915</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00295298554597812</v>
+        <v>0.003089592940635194</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01519974673706851</v>
+        <v>0.01413542478420356</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -3889,19 +3889,19 @@
         <v>14364</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7432</v>
+        <v>8226</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22767</v>
+        <v>22909</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007013303875102419</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00362878257205959</v>
+        <v>0.004016619614406965</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01111614649169883</v>
+        <v>0.01118582133582054</v>
       </c>
     </row>
     <row r="15">
@@ -3918,19 +3918,19 @@
         <v>814198</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>783471</v>
+        <v>787451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>840818</v>
+        <v>838857</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7998430066694728</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.769658132172242</v>
+        <v>0.7735674409125456</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8259934679250217</v>
+        <v>0.824067863534477</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>806</v>
@@ -3939,19 +3939,19 @@
         <v>887295</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>861892</v>
+        <v>863428</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>909281</v>
+        <v>907999</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8613497834628826</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8366901907798062</v>
+        <v>0.8381816086393494</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8826937745213319</v>
+        <v>0.8814491586592298</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1558</v>
@@ -3960,19 +3960,19 @@
         <v>1701492</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1667078</v>
+        <v>1661300</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1736121</v>
+        <v>1734886</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8307791959323696</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8139756776604153</v>
+        <v>0.8111548868857047</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8476873338675244</v>
+        <v>0.8470840580470372</v>
       </c>
     </row>
     <row r="16">
@@ -3993,19 +3993,19 @@
         <v>666441</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>645695</v>
+        <v>648107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>683298</v>
+        <v>684696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8820082112050284</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8545516338206685</v>
+        <v>0.8577443189049559</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.904317886466498</v>
+        <v>0.9061685103687013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>644</v>
@@ -4014,19 +4014,19 @@
         <v>709822</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>692020</v>
+        <v>693071</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>725023</v>
+        <v>725868</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9145118776720267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8915761386505252</v>
+        <v>0.892930572212062</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9340955482317438</v>
+        <v>0.9351850626827871</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1251</v>
@@ -4035,19 +4035,19 @@
         <v>1376264</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1346804</v>
+        <v>1347547</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1398072</v>
+        <v>1401677</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8984784040587411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.879245560610145</v>
+        <v>0.8797309910146912</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9127154549276177</v>
+        <v>0.9150688197435113</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>118500</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97276</v>
+        <v>97955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>141723</v>
+        <v>140267</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1568303210983362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1287415453318789</v>
+        <v>0.1296389809746358</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1875644465561375</v>
+        <v>0.1856374911982517</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -4085,19 +4085,19 @@
         <v>115776</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>96288</v>
+        <v>97929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137850</v>
+        <v>137556</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1491617994039184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1240547305710285</v>
+        <v>0.1261691230876092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1776016808925215</v>
+        <v>0.1772231682532979</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>205</v>
@@ -4106,19 +4106,19 @@
         <v>234276</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206790</v>
+        <v>202695</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263637</v>
+        <v>264831</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1529445431250058</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1350002101377226</v>
+        <v>0.1323270895693762</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1721125353602004</v>
+        <v>0.1728920704754309</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>37695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27872</v>
+        <v>26863</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51635</v>
+        <v>52324</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04988796133331985</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03688719469584547</v>
+        <v>0.03555206882641536</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06833725811972155</v>
+        <v>0.06924898865962287</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -4156,19 +4156,19 @@
         <v>24429</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15327</v>
+        <v>14963</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38210</v>
+        <v>37052</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03147376502682225</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01974715340307149</v>
+        <v>0.01927789683074298</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04922876908433142</v>
+        <v>0.04773640761821078</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>56</v>
@@ -4177,19 +4177,19 @@
         <v>62124</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47806</v>
+        <v>47446</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79428</v>
+        <v>81375</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04055715661557907</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0312093231728914</v>
+        <v>0.03097487449357574</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05185367855379348</v>
+        <v>0.05312452816665264</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>18819</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11498</v>
+        <v>11689</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28648</v>
+        <v>29682</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02490586250584555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01521682346220765</v>
+        <v>0.01547054650394585</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03791477782718309</v>
+        <v>0.03928275734231304</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -4227,19 +4227,19 @@
         <v>18374</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10349</v>
+        <v>10669</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28801</v>
+        <v>29141</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0236726673655193</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01333318926758107</v>
+        <v>0.0137451757768071</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03710659546518296</v>
+        <v>0.03754488882793227</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -4248,19 +4248,19 @@
         <v>37193</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26301</v>
+        <v>26582</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51523</v>
+        <v>51975</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02428098033115129</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0171705541702575</v>
+        <v>0.01735405136623729</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03363594877211515</v>
+        <v>0.03393135192349628</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>7974</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2967</v>
+        <v>3148</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20403</v>
+        <v>18542</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01055326832692442</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003927020639249288</v>
+        <v>0.004165800243257473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02700291608043285</v>
+        <v>0.02453906506216893</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -4298,19 +4298,19 @@
         <v>11604</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5416</v>
+        <v>5618</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22431</v>
+        <v>22504</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01495073245769673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006977815307919143</v>
+        <v>0.007237730461023055</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02889878525715275</v>
+        <v>0.02899332106288945</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -4319,19 +4319,19 @@
         <v>19578</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10978</v>
+        <v>11160</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32912</v>
+        <v>31914</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01278154255483779</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007167117254946591</v>
+        <v>0.007286004885635666</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02148613771965298</v>
+        <v>0.02083447600204301</v>
       </c>
     </row>
     <row r="21">
@@ -4348,19 +4348,19 @@
         <v>596636</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>571914</v>
+        <v>571368</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>619161</v>
+        <v>619162</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7896238630220576</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7569050014933992</v>
+        <v>0.7561834125230478</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8194353892536241</v>
+        <v>0.8194364444856342</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>569</v>
@@ -4369,19 +4369,19 @@
         <v>626578</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>603304</v>
+        <v>603221</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>648071</v>
+        <v>648212</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8072628373986465</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7772771780595237</v>
+        <v>0.7771706777558468</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8349541853302299</v>
+        <v>0.8351356164031312</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1111</v>
@@ -4390,19 +4390,19 @@
         <v>1223215</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1190769</v>
+        <v>1188956</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1255838</v>
+        <v>1257450</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7985618488341839</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7773800638701602</v>
+        <v>0.7761963867540382</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8198594727194063</v>
+        <v>0.8209117630247884</v>
       </c>
     </row>
     <row r="22">
@@ -4423,19 +4423,19 @@
         <v>862615</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>843565</v>
+        <v>842068</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>878018</v>
+        <v>880110</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9119858288287606</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.891845110142181</v>
+        <v>0.8902618426731372</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9282703190246953</v>
+        <v>0.9304815931298276</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>936</v>
@@ -4444,19 +4444,19 @@
         <v>983136</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>965160</v>
+        <v>965688</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>998855</v>
+        <v>996921</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9365187280942189</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9193951772699144</v>
+        <v>0.9198978046650588</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9514929992711891</v>
+        <v>0.9496504246940887</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1764</v>
@@ -4465,19 +4465,19 @@
         <v>1845751</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1820591</v>
+        <v>1820350</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1868966</v>
+        <v>1867968</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9248909827420486</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9122831382695062</v>
+        <v>0.9121624265726177</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9365237843735367</v>
+        <v>0.9360238282890148</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>133195</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>111843</v>
+        <v>111926</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>154895</v>
+        <v>155487</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1408183552220441</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1182440201764754</v>
+        <v>0.1183323835454108</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1637606474877414</v>
+        <v>0.1643857606813817</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>143</v>
@@ -4515,19 +4515,19 @@
         <v>150885</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>127188</v>
+        <v>129213</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>174127</v>
+        <v>173519</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1437301160748017</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1211573015727154</v>
+        <v>0.1230863733042736</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1658700382374948</v>
+        <v>0.1652914394074649</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>272</v>
@@ -4536,19 +4536,19 @@
         <v>284080</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>251175</v>
+        <v>257677</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>313772</v>
+        <v>320360</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1423500421848007</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1258617153194231</v>
+        <v>0.1291198143296716</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1572285526752912</v>
+        <v>0.1605299420095674</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>29844</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19817</v>
+        <v>20604</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42044</v>
+        <v>42240</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03155254816361937</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0209512576596999</v>
+        <v>0.02178273113316348</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04444998147761137</v>
+        <v>0.04465779589497555</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -4586,19 +4586,19 @@
         <v>30390</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20444</v>
+        <v>20355</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45255</v>
+        <v>44945</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02894928817143821</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01947466672901256</v>
+        <v>0.01938992668791128</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04310868812212894</v>
+        <v>0.0428133987023356</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>58</v>
@@ -4607,19 +4607,19 @@
         <v>60235</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>46423</v>
+        <v>46211</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77264</v>
+        <v>78878</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03018314332842712</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02326239774849291</v>
+        <v>0.02315602048729273</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03871646288923529</v>
+        <v>0.03952511634289595</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>32707</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22671</v>
+        <v>21631</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46868</v>
+        <v>49287</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03457862844972723</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02396903993226056</v>
+        <v>0.02286914428234456</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0495503884236668</v>
+        <v>0.05210799374845308</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -4657,19 +4657,19 @@
         <v>20958</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12315</v>
+        <v>13727</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30708</v>
+        <v>32364</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0199639024340786</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01173065072343045</v>
+        <v>0.01307613813383453</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02925184092570069</v>
+        <v>0.03082900954044639</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -4678,19 +4678,19 @@
         <v>53664</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40669</v>
+        <v>39990</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72421</v>
+        <v>70678</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02689077685943303</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02037886087286437</v>
+        <v>0.02003846183975671</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03628970422729857</v>
+        <v>0.03541600854776752</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>16049</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8908</v>
+        <v>9312</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26452</v>
+        <v>26834</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01696800040072793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009418266175504899</v>
+        <v>0.009844902102406556</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02796593229447131</v>
+        <v>0.02836989315725662</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -4728,19 +4728,19 @@
         <v>13967</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8726</v>
+        <v>8114</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23030</v>
+        <v>22613</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01330439874173354</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008312444513120363</v>
+        <v>0.007728862942924418</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02193768190203314</v>
+        <v>0.0215403805184203</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -4749,19 +4749,19 @@
         <v>30016</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20522</v>
+        <v>20576</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>43764</v>
+        <v>42575</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01504081915831895</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01028324938529459</v>
+        <v>0.01031038044785477</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02192998559618966</v>
+        <v>0.02133401286097556</v>
       </c>
     </row>
     <row r="27">
@@ -4778,19 +4778,19 @@
         <v>750809</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>725084</v>
+        <v>723218</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>774344</v>
+        <v>774330</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7937803077850848</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7665833269446289</v>
+        <v>0.7646096434762027</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8186626783950477</v>
+        <v>0.8186471435736571</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>809</v>
@@ -4799,19 +4799,19 @@
         <v>853011</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>826463</v>
+        <v>827599</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>877971</v>
+        <v>878853</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8125640567266326</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7872747705398381</v>
+        <v>0.7883574277439653</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8363401844528808</v>
+        <v>0.8371806157737112</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1530</v>
@@ -4820,19 +4820,19 @@
         <v>1603820</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1568157</v>
+        <v>1565598</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1640551</v>
+        <v>1639067</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8036612096930195</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7857908407062348</v>
+        <v>0.7845085134797911</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8220667020104785</v>
+        <v>0.8213230794307846</v>
       </c>
     </row>
     <row r="28">
@@ -4853,19 +4853,19 @@
         <v>3129926</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3093917</v>
+        <v>3094257</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3165063</v>
+        <v>3163305</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9149485533823425</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9044222287737879</v>
+        <v>0.9045215588019232</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9252198365347576</v>
+        <v>0.9247059851844552</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3081</v>
@@ -4874,19 +4874,19 @@
         <v>3324712</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3293566</v>
+        <v>3294845</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3353351</v>
+        <v>3353611</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9359624429615563</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9271944255088562</v>
+        <v>0.9275545634939759</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9440249173374693</v>
+        <v>0.9440980710549827</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6015</v>
@@ -4895,19 +4895,19 @@
         <v>6454638</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6407329</v>
+        <v>6409338</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6498640</v>
+        <v>6497113</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9256533528068055</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9188687916277012</v>
+        <v>0.9191568721277816</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9319636649940612</v>
+        <v>0.9317445527314611</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>410555</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>374267</v>
+        <v>369591</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>454146</v>
+        <v>451083</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1200146644904551</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1094068521056802</v>
+        <v>0.1080398513758748</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1327571014362802</v>
+        <v>0.1318619456810869</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>410</v>
@@ -4945,19 +4945,19 @@
         <v>447378</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>407011</v>
+        <v>404545</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>487651</v>
+        <v>488949</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1259445823347439</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1145804133039304</v>
+        <v>0.1138862003627599</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1372820599740808</v>
+        <v>0.1376475222886472</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>791</v>
@@ -4966,19 +4966,19 @@
         <v>857934</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>804893</v>
+        <v>802594</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>922590</v>
+        <v>913379</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1230354560905712</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1154288641136289</v>
+        <v>0.1150992488572606</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1323077655867411</v>
+        <v>0.1309867823851373</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>143221</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>121674</v>
+        <v>121192</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>169459</v>
+        <v>167192</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04186670822833417</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0355679479001493</v>
+        <v>0.03542710290484526</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04953665722946386</v>
+        <v>0.04887399689395202</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>74</v>
@@ -5016,19 +5016,19 @@
         <v>82684</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>65965</v>
+        <v>64331</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>103505</v>
+        <v>104741</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02327685098458152</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01857031680574116</v>
+        <v>0.01811037941923042</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02913840246379234</v>
+        <v>0.02948645215166067</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>215</v>
@@ -5037,19 +5037,19 @@
         <v>225905</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>199650</v>
+        <v>199771</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>259217</v>
+        <v>258715</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03239674825859029</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02863162788655244</v>
+        <v>0.02864901667805584</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03717403759228957</v>
+        <v>0.03710211757212264</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>88935</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>70333</v>
+        <v>69908</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>111637</v>
+        <v>109531</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02599779308066793</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02055983347526292</v>
+        <v>0.02043581399539614</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03263404772713859</v>
+        <v>0.03201846767671761</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>56</v>
@@ -5087,19 +5087,19 @@
         <v>61369</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>47226</v>
+        <v>46528</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>77955</v>
+        <v>78769</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01727635413764367</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01329493609107782</v>
+        <v>0.01309830717442398</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02194557548608502</v>
+        <v>0.02217480766831566</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>133</v>
@@ -5108,19 +5108,19 @@
         <v>150304</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>124647</v>
+        <v>125464</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>178081</v>
+        <v>178280</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02155495758246844</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0178755089066776</v>
+        <v>0.01799261463522229</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02553845944597211</v>
+        <v>0.02556693618212707</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>35946</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25394</v>
+        <v>23954</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50842</v>
+        <v>51299</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01050783968731242</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007423382084851362</v>
+        <v>0.007002341931683787</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01486226919958985</v>
+        <v>0.0149959483126035</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -5158,19 +5158,19 @@
         <v>40396</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29907</v>
+        <v>29067</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55381</v>
+        <v>56803</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0113721362200044</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008419246789088832</v>
+        <v>0.008182719399912696</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01559071244046518</v>
+        <v>0.01599089979352171</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>70</v>
@@ -5179,19 +5179,19 @@
         <v>76342</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>58620</v>
+        <v>59490</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>96135</v>
+        <v>97205</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01094812567010726</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008406677494961762</v>
+        <v>0.008531376208667712</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01378658593534357</v>
+        <v>0.01394003067940766</v>
       </c>
     </row>
     <row r="33">
@@ -5208,19 +5208,19 @@
         <v>2741351</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2691549</v>
+        <v>2694874</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2792315</v>
+        <v>2790662</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8013591612626857</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.78680089932798</v>
+        <v>0.787772744036492</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.816257104749986</v>
+        <v>0.8157739306433303</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2721</v>
@@ -5229,19 +5229,19 @@
         <v>2945181</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2903264</v>
+        <v>2897891</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2992681</v>
+        <v>2993026</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8291180527986558</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8173177996480228</v>
+        <v>0.8158052279970085</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.842490315123731</v>
+        <v>0.8425871920255886</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5289</v>
@@ -5250,19 +5250,19 @@
         <v>5686532</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5613060</v>
+        <v>5616047</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5749469</v>
+        <v>5752132</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8154999687042512</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8049634536784916</v>
+        <v>0.8053918404266135</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.8245257559547537</v>
+        <v>0.824907642659456</v>
       </c>
     </row>
     <row r="34">
@@ -5523,19 +5523,19 @@
         <v>598087</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>580146</v>
+        <v>579524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>612346</v>
+        <v>612017</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8886688814603156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8620111269192593</v>
+        <v>0.8610866626315579</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9098550260548778</v>
+        <v>0.9093667218495419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>631</v>
@@ -5544,19 +5544,19 @@
         <v>639348</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>626776</v>
+        <v>627793</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>649275</v>
+        <v>648789</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9519129041750478</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9331960235948904</v>
+        <v>0.9347092468300956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9666942689050743</v>
+        <v>0.9659695376982379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1211</v>
@@ -5565,19 +5565,19 @@
         <v>1237436</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1215426</v>
+        <v>1216265</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1255854</v>
+        <v>1256003</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.920258667981538</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9038906114790533</v>
+        <v>0.9045142865951541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9339554851569505</v>
+        <v>0.9340669682125486</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>85020</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68157</v>
+        <v>68422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103011</v>
+        <v>104811</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1263267755194453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1012713803195619</v>
+        <v>0.1016656037817576</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1530591440209167</v>
+        <v>0.1557333577383092</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -5615,19 +5615,19 @@
         <v>84220</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68252</v>
+        <v>67896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102884</v>
+        <v>100377</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1253932601250665</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1016197164730736</v>
+        <v>0.1010896654142543</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1531816143927772</v>
+        <v>0.1494498547125383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>169</v>
@@ -5636,19 +5636,19 @@
         <v>169240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>147038</v>
+        <v>146972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>195608</v>
+        <v>193200</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1258604934779674</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1093498626547255</v>
+        <v>0.1093004904291578</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1454698116274872</v>
+        <v>0.1436791132212581</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>69103</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53991</v>
+        <v>54468</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86182</v>
+        <v>85486</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1026769044906351</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08022298902981692</v>
+        <v>0.08093129765962481</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1280542141770145</v>
+        <v>0.1270199424626649</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -5686,19 +5686,19 @@
         <v>53750</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40686</v>
+        <v>41467</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68717</v>
+        <v>70082</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08002806265702585</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06057627181990821</v>
+        <v>0.06173899249724656</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.102311593716015</v>
+        <v>0.1043437851294314</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>118</v>
@@ -5707,19 +5707,19 @@
         <v>122854</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>101799</v>
+        <v>103992</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>144793</v>
+        <v>145233</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0913640238773343</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07570571634795485</v>
+        <v>0.0773370297167118</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.10767956814211</v>
+        <v>0.1080071703721724</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>18592</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10989</v>
+        <v>10443</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29799</v>
+        <v>28544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02762515009315255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01632872287250205</v>
+        <v>0.01551700183175316</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04427621025965073</v>
+        <v>0.04241204819495439</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -5757,19 +5757,19 @@
         <v>8645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4233</v>
+        <v>4102</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16713</v>
+        <v>15917</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01287128736975421</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0063023484274035</v>
+        <v>0.006108106420571638</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02488379805684905</v>
+        <v>0.02369850754983653</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -5778,19 +5778,19 @@
         <v>27237</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17102</v>
+        <v>17389</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39846</v>
+        <v>39459</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02025573629261316</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01271876051932134</v>
+        <v>0.01293154965892666</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02963261375618016</v>
+        <v>0.02934517160551273</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>43798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31568</v>
+        <v>32102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58355</v>
+        <v>58149</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06507701950812489</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04690500059419401</v>
+        <v>0.04769872877352133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08670615392096856</v>
+        <v>0.08640058840674168</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -5828,19 +5828,19 @@
         <v>34748</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24711</v>
+        <v>23825</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47864</v>
+        <v>47050</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05173511754046889</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03679178257628066</v>
+        <v>0.03547200885746238</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07126347878564306</v>
+        <v>0.07005161357554497</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>76</v>
@@ -5849,19 +5849,19 @@
         <v>78546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>61736</v>
+        <v>61908</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>97145</v>
+        <v>97975</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05841286664665372</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04591180018582826</v>
+        <v>0.04604001062613564</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07224520183401989</v>
+        <v>0.07286232904866677</v>
       </c>
     </row>
     <row r="9">
@@ -5878,19 +5878,19 @@
         <v>543429</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>522459</v>
+        <v>521931</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>563382</v>
+        <v>563907</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8074548983788707</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7762955028714377</v>
+        <v>0.7755116117330694</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8371024175088448</v>
+        <v>0.837882038263364</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>565</v>
@@ -5899,19 +5899,19 @@
         <v>572806</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>552246</v>
+        <v>555316</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>590559</v>
+        <v>590053</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8528409423148466</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8222284137240964</v>
+        <v>0.8267996732232107</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8792722043197847</v>
+        <v>0.8785193064168336</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1094</v>
@@ -5920,19 +5920,19 @@
         <v>1116236</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1087323</v>
+        <v>1085538</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1144543</v>
+        <v>1141453</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8301247947174906</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8086222979278714</v>
+        <v>0.8072949905958847</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8511762089280299</v>
+        <v>0.8488780824048562</v>
       </c>
     </row>
     <row r="10">
@@ -5953,19 +5953,19 @@
         <v>911947</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>889396</v>
+        <v>890008</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>932292</v>
+        <v>931208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8929018675713037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8708220442381398</v>
+        <v>0.871421350543977</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9128221638152002</v>
+        <v>0.9117606279450819</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>891</v>
@@ -5974,19 +5974,19 @@
         <v>953988</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>933858</v>
+        <v>930762</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>970734</v>
+        <v>969452</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9155649189195759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.896244859998637</v>
+        <v>0.8932738680453396</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9316357443895529</v>
+        <v>0.9304056473514667</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1739</v>
@@ -5995,19 +5995,19 @@
         <v>1865934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1835105</v>
+        <v>1835220</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1892215</v>
+        <v>1889237</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9043467382083105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.889404941045832</v>
+        <v>0.8894606393592404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9170842670943504</v>
+        <v>0.9156407336939982</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>138207</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>115501</v>
+        <v>118734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>162552</v>
+        <v>163301</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1353202855458641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1130885337042246</v>
+        <v>0.1162547182299657</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1591571386521706</v>
+        <v>0.1598906268085038</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -6045,19 +6045,19 @@
         <v>143231</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121851</v>
+        <v>121058</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167203</v>
+        <v>166717</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1374619018975934</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1169432327141199</v>
+        <v>0.1161817543489836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1604684027592898</v>
+        <v>0.1600023575456082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>264</v>
@@ -6066,19 +6066,19 @@
         <v>281437</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>250846</v>
+        <v>251015</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>318153</v>
+        <v>313295</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1364018046106616</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1215754805064848</v>
+        <v>0.1216573695160367</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1541967820413129</v>
+        <v>0.1518421255457208</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>106487</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88463</v>
+        <v>85547</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>128302</v>
+        <v>126098</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1042634575145118</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08661552772745532</v>
+        <v>0.08376081549687106</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1256230255158214</v>
+        <v>0.1234646183862101</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>85</v>
@@ -6116,19 +6116,19 @@
         <v>92061</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75290</v>
+        <v>75787</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114698</v>
+        <v>114140</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08835296137582044</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07225751564032906</v>
+        <v>0.07273451568955089</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1100787746853017</v>
+        <v>0.1095426391160543</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>185</v>
@@ -6137,19 +6137,19 @@
         <v>198548</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>170433</v>
+        <v>170506</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>222997</v>
+        <v>227829</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0962286361094145</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08260232748280542</v>
+        <v>0.08263753814468773</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1080783286303705</v>
+        <v>0.1104200602579114</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>18774</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10668</v>
+        <v>11486</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28997</v>
+        <v>30059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01838163215029377</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01044483547316583</v>
+        <v>0.0112465357184816</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02839148796356106</v>
+        <v>0.02943077383672402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -6187,19 +6187,19 @@
         <v>12155</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6610</v>
+        <v>6744</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20933</v>
+        <v>20487</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01166573142150607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006343840109008575</v>
+        <v>0.006472604907675149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02009034327739602</v>
+        <v>0.01966172496654551</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -6208,19 +6208,19 @@
         <v>30929</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20304</v>
+        <v>20741</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43615</v>
+        <v>44600</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01499009347923066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009840600787296379</v>
+        <v>0.01005260905606512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02113854780234405</v>
+        <v>0.02161568367104427</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>40943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30315</v>
+        <v>29307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55907</v>
+        <v>55603</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04008828856735368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02968234482732671</v>
+        <v>0.02869474044326766</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05473978575830812</v>
+        <v>0.05444205817393084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -6258,19 +6258,19 @@
         <v>48141</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34762</v>
+        <v>36128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63963</v>
+        <v>65619</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04620226936917594</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03336235743093027</v>
+        <v>0.03467312181532322</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06138689433082702</v>
+        <v>0.06297651040778147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>80</v>
@@ -6279,19 +6279,19 @@
         <v>89085</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>70147</v>
+        <v>72497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>109217</v>
+        <v>110871</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0431758568863185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03399779588264448</v>
+        <v>0.03513675515844045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05293337171075028</v>
+        <v>0.05373490348435483</v>
       </c>
     </row>
     <row r="15">
@@ -6308,19 +6308,19 @@
         <v>866783</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>842178</v>
+        <v>842999</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>888142</v>
+        <v>886774</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8486816570405985</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8245906070024341</v>
+        <v>0.825393907960093</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8695948630034018</v>
+        <v>0.8682552453118493</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>833</v>
@@ -6329,19 +6329,19 @@
         <v>893415</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>868671</v>
+        <v>869909</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>913829</v>
+        <v>914909</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8574308075894698</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8336841596767888</v>
+        <v>0.834871924404439</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8770230281015647</v>
+        <v>0.8780597133961927</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1640</v>
@@ -6350,19 +6350,19 @@
         <v>1760197</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1727968</v>
+        <v>1728984</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1793975</v>
+        <v>1793649</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.853099989535934</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8374796921419495</v>
+        <v>0.8379721604852348</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8694707117959498</v>
+        <v>0.8693128305747571</v>
       </c>
     </row>
     <row r="16">
@@ -6383,19 +6383,19 @@
         <v>696998</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>679628</v>
+        <v>681302</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>712186</v>
+        <v>712039</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9189531854273775</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.896052854186525</v>
+        <v>0.8982599448364533</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9389778310894861</v>
+        <v>0.93878429882364</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>691</v>
@@ -6404,19 +6404,19 @@
         <v>739750</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>726282</v>
+        <v>724265</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>750981</v>
+        <v>750961</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9423428645643838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9251869281611551</v>
+        <v>0.9226170442468712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9566506861142027</v>
+        <v>0.9566247355983868</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1330</v>
@@ -6425,19 +6425,19 @@
         <v>1436747</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1414090</v>
+        <v>1414577</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1454263</v>
+        <v>1454319</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9308491336418142</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9161697833660163</v>
+        <v>0.9164855571070388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9421976973599367</v>
+        <v>0.9422340085884862</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>92266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74452</v>
+        <v>73859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114300</v>
+        <v>111940</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.121647361361494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09816043993815086</v>
+        <v>0.09737878780482677</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1506984098271378</v>
+        <v>0.1475874400621665</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>107</v>
@@ -6475,19 +6475,19 @@
         <v>114674</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>95638</v>
+        <v>97021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136412</v>
+        <v>137963</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1460793640711051</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1218295953358201</v>
+        <v>0.1235913268531942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1737709763530685</v>
+        <v>0.1757470005448178</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>190</v>
@@ -6496,19 +6496,19 @@
         <v>206940</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>180921</v>
+        <v>181502</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>235135</v>
+        <v>236273</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1340734334467955</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1172163047172396</v>
+        <v>0.1175927554417318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1523410054799914</v>
+        <v>0.153078195123403</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>21824</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13633</v>
+        <v>13791</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33408</v>
+        <v>33192</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02877321314202946</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01797490575414303</v>
+        <v>0.01818265054674987</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04404597883280703</v>
+        <v>0.04376230825171402</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -6546,19 +6546,19 @@
         <v>15041</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9089</v>
+        <v>8777</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24389</v>
+        <v>24489</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01916061917338553</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01157874404963311</v>
+        <v>0.01118084634412648</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03106800115472062</v>
+        <v>0.03119576121304826</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -6567,19 +6567,19 @@
         <v>36865</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26159</v>
+        <v>26620</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>51998</v>
+        <v>51783</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02388426535494871</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01694836375857126</v>
+        <v>0.01724661772302915</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03368864243000412</v>
+        <v>0.03354970029539259</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>11867</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6118</v>
+        <v>5970</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22761</v>
+        <v>22566</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01564574326844647</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008066471122438119</v>
+        <v>0.00787122002936245</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03000874389915488</v>
+        <v>0.02975162493101717</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -6617,19 +6617,19 @@
         <v>6950</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2948</v>
+        <v>3026</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13125</v>
+        <v>13891</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008853508354515977</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003754879549087997</v>
+        <v>0.003855107541447446</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01671906028402818</v>
+        <v>0.01769566726650626</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -6638,19 +6638,19 @@
         <v>18817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11424</v>
+        <v>10720</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30307</v>
+        <v>30964</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01219122496047329</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007401692200835838</v>
+        <v>0.006945616166144408</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01963570887652687</v>
+        <v>0.02006137919214563</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>21386</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13253</v>
+        <v>12542</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33370</v>
+        <v>32464</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02819605929213564</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01747395764479702</v>
+        <v>0.01653637570727706</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04399633490383942</v>
+        <v>0.04280140263316634</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -6688,19 +6688,19 @@
         <v>23448</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14951</v>
+        <v>14779</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35233</v>
+        <v>34399</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02986982093175729</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01904508088849572</v>
+        <v>0.01882618822109953</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04488251129687744</v>
+        <v>0.04381958180665003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>41</v>
@@ -6709,19 +6709,19 @@
         <v>44834</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33034</v>
+        <v>32090</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59263</v>
+        <v>60766</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02904733141398136</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02140235363230904</v>
+        <v>0.02079065022202637</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03839598438798424</v>
+        <v>0.03936952133273341</v>
       </c>
     </row>
     <row r="21">
@@ -6738,19 +6738,19 @@
         <v>649762</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>627851</v>
+        <v>629565</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>667395</v>
+        <v>669368</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8566756184542521</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8277874872107582</v>
+        <v>0.8300466749343544</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.879923822135261</v>
+        <v>0.8825248873131409</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>660</v>
@@ -6759,19 +6759,19 @@
         <v>704364</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>685039</v>
+        <v>686564</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>720612</v>
+        <v>721373</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8972667788652049</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8726491787684106</v>
+        <v>0.8745917946620122</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9179648314485148</v>
+        <v>0.9189334352160271</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1256</v>
@@ -6780,19 +6780,19 @@
         <v>1354126</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1326027</v>
+        <v>1328089</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1379850</v>
+        <v>1379075</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8773202087192212</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8591150106568142</v>
+        <v>0.860450820855477</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8939863228459256</v>
+        <v>0.8934845229952845</v>
       </c>
     </row>
     <row r="22">
@@ -6813,19 +6813,19 @@
         <v>871443</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>854568</v>
+        <v>853971</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>885112</v>
+        <v>885765</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9294723256686913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9114742130741282</v>
+        <v>0.9108375581367057</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9440517986173848</v>
+        <v>0.9447487778740998</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>900</v>
@@ -6834,19 +6834,19 @@
         <v>981417</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>964729</v>
+        <v>963867</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>996554</v>
+        <v>994902</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9412561043777172</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9252517288968437</v>
+        <v>0.924424358800682</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9557738338319224</v>
+        <v>0.9541898982845555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1768</v>
@@ -6855,19 +6855,19 @@
         <v>1852859</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1832213</v>
+        <v>1831410</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1874483</v>
+        <v>1874918</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.935676924036713</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9252506002763711</v>
+        <v>0.924845123065921</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9465966562815711</v>
+        <v>0.9468164364540136</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>125862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>107113</v>
+        <v>103934</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>152256</v>
+        <v>147429</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1342432223478983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1142461177760352</v>
+        <v>0.1108554748680119</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1623950586345801</v>
+        <v>0.157246427109943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>120</v>
@@ -6905,19 +6905,19 @@
         <v>129270</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>109745</v>
+        <v>107810</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>152063</v>
+        <v>150552</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1239799416995813</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1052545039636034</v>
+        <v>0.1033979627251563</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1458404385220073</v>
+        <v>0.1443915016214881</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>241</v>
@@ -6926,19 +6926,19 @@
         <v>255132</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>226406</v>
+        <v>226190</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>287332</v>
+        <v>287625</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1288392228386136</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1143328768742353</v>
+        <v>0.1142240323624507</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1450997848811961</v>
+        <v>0.1452479888439839</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>54539</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41696</v>
+        <v>40999</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>71764</v>
+        <v>70390</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05817098796186392</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04447238248416371</v>
+        <v>0.04372935002823639</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07654245514170331</v>
+        <v>0.0750773296183459</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>49</v>
@@ -6976,19 +6976,19 @@
         <v>53456</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39897</v>
+        <v>39721</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>69730</v>
+        <v>69629</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05126822918314666</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03826458788171321</v>
+        <v>0.03809574480439445</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06687702326108574</v>
+        <v>0.06678008812703772</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -6997,19 +6997,19 @@
         <v>107995</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>89505</v>
+        <v>88809</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>131490</v>
+        <v>129279</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05453642837696007</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04519897753117238</v>
+        <v>0.04484753317145643</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06640145311553459</v>
+        <v>0.06528467585546592</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>15146</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8352</v>
+        <v>8879</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24489</v>
+        <v>24258</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01615428662051895</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008908047682590859</v>
+        <v>0.00947040510207753</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02611974870107097</v>
+        <v>0.02587314688892606</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -7047,19 +7047,19 @@
         <v>7481</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3001</v>
+        <v>3056</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14312</v>
+        <v>15138</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007175069198262298</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002878124188826012</v>
+        <v>0.00293085851720279</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01372609646204548</v>
+        <v>0.01451818961688539</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -7068,19 +7068,19 @@
         <v>22627</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14542</v>
+        <v>14836</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34251</v>
+        <v>33661</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01142639422369624</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007343342213790878</v>
+        <v>0.007492247831780244</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01729630116053104</v>
+        <v>0.01699864642481898</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>30781</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21305</v>
+        <v>21087</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44169</v>
+        <v>44004</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03283100915174429</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02272415485270745</v>
+        <v>0.02249169824889593</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04710982631923367</v>
+        <v>0.04693459426041695</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -7118,19 +7118,19 @@
         <v>40112</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29042</v>
+        <v>28928</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55877</v>
+        <v>54389</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03847059418991877</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02785371887567244</v>
+        <v>0.02774411564149171</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05359010355296899</v>
+        <v>0.05216302525364055</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>67</v>
@@ -7139,19 +7139,19 @@
         <v>70893</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>56400</v>
+        <v>56067</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>88477</v>
+        <v>89090</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03580046071632387</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02848143561581786</v>
+        <v>0.02831315174321322</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04467993947426131</v>
+        <v>0.04498946973716464</v>
       </c>
     </row>
     <row r="27">
@@ -7168,19 +7168,19 @@
         <v>802690</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>778796</v>
+        <v>778745</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>822265</v>
+        <v>824464</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8561413387618744</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8306559218692388</v>
+        <v>0.8306021681453151</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8770196404819095</v>
+        <v>0.8793654846228028</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>856</v>
@@ -7189,19 +7189,19 @@
         <v>934251</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>914098</v>
+        <v>910891</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>952953</v>
+        <v>953886</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8960204106507584</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8766925246606813</v>
+        <v>0.8736166960944926</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9139570966177006</v>
+        <v>0.914852297079878</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1657</v>
@@ -7210,19 +7210,19 @@
         <v>1736941</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1706726</v>
+        <v>1706698</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1766462</v>
+        <v>1764100</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8771391553765451</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.861880863448733</v>
+        <v>0.8618668867394284</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8920469209371454</v>
+        <v>0.8908542316086653</v>
       </c>
     </row>
     <row r="28">
@@ -7243,19 +7243,19 @@
         <v>3078474</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3043299</v>
+        <v>3046117</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3113092</v>
+        <v>3113154</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9080026834746913</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8976277382147596</v>
+        <v>0.8984589672292487</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9182133866987469</v>
+        <v>0.9182315443319365</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3113</v>
@@ -7264,19 +7264,19 @@
         <v>3314502</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3285003</v>
+        <v>3286105</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3341909</v>
+        <v>3344853</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9359589783548349</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9276290266736132</v>
+        <v>0.9279401441177335</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9436981978256981</v>
+        <v>0.9445295538277882</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6048</v>
@@ -7285,19 +7285,19 @@
         <v>6392976</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6350069</v>
+        <v>6345672</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6439832</v>
+        <v>6438943</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.922285150814407</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9160951757556688</v>
+        <v>0.9154607076337025</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9290448020441365</v>
+        <v>0.9289164912622976</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>441354</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>401849</v>
+        <v>402438</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>477913</v>
+        <v>482026</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1301783612778355</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1185263092814241</v>
+        <v>0.1187000819599688</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1409615001552084</v>
+        <v>0.1421746227573321</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>451</v>
@@ -7335,19 +7335,19 @@
         <v>471394</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>431263</v>
+        <v>430434</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>508842</v>
+        <v>513018</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1331137023573712</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1217813895565747</v>
+        <v>0.121547263908016</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.14368836438545</v>
+        <v>0.1448676133478753</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>864</v>
@@ -7356,19 +7356,19 @@
         <v>912748</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>863050</v>
+        <v>856875</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>975896</v>
+        <v>967082</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1316779846463517</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1245082466286633</v>
+        <v>0.1236173260227487</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1407880288969757</v>
+        <v>0.1395164610491213</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>251953</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>222464</v>
+        <v>221691</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>283221</v>
+        <v>282815</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07431414412438457</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06561623694910278</v>
+        <v>0.06538820627646924</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0835366198257696</v>
+        <v>0.08341701402078183</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>201</v>
@@ -7406,19 +7406,19 @@
         <v>214308</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>188336</v>
+        <v>185542</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>245783</v>
+        <v>242904</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06051701699440668</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05318298841934026</v>
+        <v>0.05239385272448546</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06940504234593244</v>
+        <v>0.06859208226918102</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>440</v>
@@ -7427,19 +7427,19 @@
         <v>466261</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>424159</v>
+        <v>427307</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>509771</v>
+        <v>514804</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06726539111685435</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06119145167640339</v>
+        <v>0.06164558326960908</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07354235974879006</v>
+        <v>0.07426840418842245</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>64378</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>48572</v>
+        <v>49328</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>83321</v>
+        <v>82530</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01898854299189817</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01432638603048536</v>
+        <v>0.01454930022853858</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0245757543463508</v>
+        <v>0.02434235876149093</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -7477,19 +7477,19 @@
         <v>35232</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24767</v>
+        <v>24838</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>49520</v>
+        <v>48381</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.009948790654789857</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006993772900879336</v>
+        <v>0.007013848961830132</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01398358279815832</v>
+        <v>0.01366190251182106</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>93</v>
@@ -7498,19 +7498,19 @@
         <v>99610</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>79470</v>
+        <v>80265</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>120726</v>
+        <v>122155</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01437026406518782</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01146473830441433</v>
+        <v>0.01157951227457314</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01741665327616131</v>
+        <v>0.01762268595374336</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>136908</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>115366</v>
+        <v>114972</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>161576</v>
+        <v>162149</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04038139178138878</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03402752290923115</v>
+        <v>0.03391116801670795</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04765723345227278</v>
+        <v>0.04782606360207798</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>136</v>
@@ -7548,19 +7548,19 @@
         <v>146449</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>122947</v>
+        <v>123845</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>173851</v>
+        <v>173144</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04135471292185168</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03471822163333301</v>
+        <v>0.03497164490229357</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04909261917952298</v>
+        <v>0.04889300326992383</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>264</v>
@@ -7569,19 +7569,19 @@
         <v>283357</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>248767</v>
+        <v>250152</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>316534</v>
+        <v>318159</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04087864749640092</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0358884110295991</v>
+        <v>0.03608834237308138</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04566490188098222</v>
+        <v>0.0458993800567284</v>
       </c>
     </row>
     <row r="33">
@@ -7598,19 +7598,19 @@
         <v>2862664</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2818150</v>
+        <v>2816796</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2903506</v>
+        <v>2904149</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8443490677335193</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8312194146000388</v>
+        <v>0.8308201635038298</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8563953886096285</v>
+        <v>0.8565851958598665</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2914</v>
@@ -7619,19 +7619,19 @@
         <v>3104836</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3061913</v>
+        <v>3068111</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>3142201</v>
+        <v>3144504</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8767528674885744</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8646320072350758</v>
+        <v>0.8663823838687768</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8873041381516282</v>
+        <v>0.8879543529847159</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5647</v>
@@ -7640,19 +7640,19 @@
         <v>5967500</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5907321</v>
+        <v>5906862</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>6032008</v>
+        <v>6028156</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8609037010877759</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8522218738579915</v>
+        <v>0.8521557232938826</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.870209956740843</v>
+        <v>0.8696541999232981</v>
       </c>
     </row>
     <row r="34">
